--- a/bin/图书信息.xlsx
+++ b/bin/图书信息.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\temp\图书馆管理系统\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A2BDA3-BDB7-495A-8B9B-53820D24AB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9D436F-51A2-481B-B3C4-CF5EBA02A7CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="1740" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,73 +25,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭钰鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>215960200505265485</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路人A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456159585251455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咕咕咕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-12-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125985555555556455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-14-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咕咕咕</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>书名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在库书籍书目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签2</t>
+  </si>
+  <si>
+    <t>标签3</t>
+  </si>
+  <si>
+    <t>C++程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法导论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能与计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初等数论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸好看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thomas H. Horman…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥利给！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,9 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -419,21 +461,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="31.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,62 +486,97 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3019244253</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2030258888</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3215888888</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
